--- a/medicine/Enfance/Paul_Thiès/Paul_Thiès.xlsx
+++ b/medicine/Enfance/Paul_Thiès/Paul_Thiès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paul_Thi%C3%A8s</t>
+          <t>Paul_Thiès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Thiès, nom de plume de Mathieu Lipschutz, né le 9 septembre 1958 à Strasbourg, est un écrivain pour la jeunesse français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paul_Thi%C3%A8s</t>
+          <t>Paul_Thiès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les Forbans des Caraïbes, Rageot (Les Maîtres de l'Aventure), 1983.
 Les Aventuriers du Saint-Corentin, Rageot (Les Maîtres de l'Aventure), 1985.
@@ -522,7 +536,7 @@
 Diego, Casterman, Aventures à construire (n 6), 1988
 Je suis amoureux d'un tigre, ill. Mireille Vautier, Syros, 1989
 La Sorcière est dans l'ascenseur, Rageot, 1993.
-Olle, Casterman, Aventures à construire (n 14), 1995[1]
+Olle, Casterman, Aventures à construire (n 14), 1995
 Abdallah et la forteresse des sables, Hachette-Jeunesse (Bibliothèque rose), 1997.
 Un été bleu cauchemar
 Un hiver  blanc frisson
